--- a/DC_review_data.xlsx
+++ b/DC_review_data.xlsx
@@ -14,24 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="1473">
-  <si>
-    <t>User Name</t>
-  </si>
-  <si>
-    <t>User Location</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="1474">
+  <si>
+    <t>User_Name</t>
+  </si>
+  <si>
+    <t>User_Location</t>
   </si>
   <si>
     <t>Stars</t>
   </si>
   <si>
-    <t>Entry Date</t>
-  </si>
-  <si>
-    <t>Entry Quote</t>
-  </si>
-  <si>
-    <t>Entry Content</t>
+    <t>Entry_Date</t>
+  </si>
+  <si>
+    <t>Entry_Quote</t>
+  </si>
+  <si>
+    <t>Entry_Content</t>
   </si>
   <si>
     <t>radioxenon</t>
@@ -199,7 +199,7 @@
     <t>ohiowills</t>
   </si>
   <si>
-    <t>Mac V</t>
+    <t>858michele</t>
   </si>
   <si>
     <t>ramiroc848</t>
@@ -991,7 +991,7 @@
     <t>lydthompson</t>
   </si>
   <si>
-    <t>Mark H</t>
+    <t>causemark</t>
   </si>
   <si>
     <t>mrskrae</t>
@@ -1340,6 +1340,9 @@
   </si>
   <si>
     <t>Ipswich, United Kingdom</t>
+  </si>
+  <si>
+    <t>Buenos Aires, Argentina</t>
   </si>
   <si>
     <t>Alexandria, Virginia</t>
@@ -4832,13 +4835,13 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G2" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4852,13 +4855,13 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F3" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="G3" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4875,13 +4878,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F4" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="G4" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4895,13 +4898,13 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F5" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="G5" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4915,13 +4918,13 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F6" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="G6" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4938,13 +4941,13 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F7" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="G7" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4958,13 +4961,13 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F8" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G8" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4978,13 +4981,13 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F9" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="G9" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5001,13 +5004,13 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F10" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G10" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5021,13 +5024,13 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F11" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="G11" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5044,13 +5047,13 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F12" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G12" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5064,13 +5067,13 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F13" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="G13" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5084,13 +5087,13 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F14" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G14" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5104,13 +5107,13 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F15" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="G15" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5124,13 +5127,13 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F16" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="G16" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -5147,13 +5150,13 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F17" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="G17" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5170,13 +5173,13 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F18" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G18" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5190,13 +5193,13 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F19" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="G19" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5213,13 +5216,13 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F20" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="G20" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -5236,13 +5239,13 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F21" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="G21" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5259,13 +5262,13 @@
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F22" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G22" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5282,13 +5285,13 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F23" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G23" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5302,13 +5305,13 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F24" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="G24" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5322,13 +5325,13 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F25" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="G25" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5345,13 +5348,13 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F26" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="G26" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5368,13 +5371,13 @@
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F27" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="G27" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5391,13 +5394,13 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F28" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G28" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -5414,13 +5417,13 @@
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F29" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="G29" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -5434,13 +5437,13 @@
         <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F30" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="G30" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5454,13 +5457,13 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F31" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="G31" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -5477,13 +5480,13 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F32" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="G32" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -5500,13 +5503,13 @@
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F33" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="G33" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -5523,13 +5526,13 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F34" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="G34" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -5546,13 +5549,13 @@
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F35" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="G35" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -5569,13 +5572,13 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F36" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="G36" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -5592,13 +5595,13 @@
         <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F37" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="G37" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -5612,13 +5615,13 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F38" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="G38" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -5635,13 +5638,13 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F39" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G39" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -5658,13 +5661,13 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F40" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G40" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -5678,13 +5681,13 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F41" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="G41" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -5701,13 +5704,13 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F42" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="G42" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -5724,13 +5727,13 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F43" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="G43" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -5747,13 +5750,13 @@
         <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F44" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G44" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -5770,13 +5773,13 @@
         <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F45" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G45" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -5793,13 +5796,13 @@
         <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F46" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="G46" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -5816,13 +5819,13 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F47" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="G47" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -5839,13 +5842,13 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F48" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="G48" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -5862,13 +5865,13 @@
         <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F49" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G49" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -5885,13 +5888,13 @@
         <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F50" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G50" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -5908,13 +5911,13 @@
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F51" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="G51" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -5931,13 +5934,13 @@
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F52" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="G52" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -5954,13 +5957,13 @@
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F53" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="G53" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -5977,13 +5980,13 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F54" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="G54" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -6000,13 +6003,13 @@
         <v>4</v>
       </c>
       <c r="E55" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F55" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="G55" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -6023,13 +6026,13 @@
         <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F56" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="G56" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -6043,13 +6046,13 @@
         <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F57" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="G57" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -6066,13 +6069,13 @@
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F58" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="G58" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -6086,13 +6089,13 @@
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F59" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="G59" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -6109,13 +6112,13 @@
         <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F60" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="G60" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -6132,13 +6135,13 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F61" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="G61" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -6155,13 +6158,13 @@
         <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="G62" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -6178,13 +6181,13 @@
         <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F63" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="G63" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -6201,13 +6204,13 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F64" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="G64" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -6224,13 +6227,13 @@
         <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F65" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="G65" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -6247,13 +6250,13 @@
         <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F66" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="G66" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -6270,13 +6273,13 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F67" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="G67" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -6293,13 +6296,13 @@
         <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F68" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G68" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -6316,13 +6319,13 @@
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F69" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="G69" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -6339,13 +6342,13 @@
         <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F70" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="G70" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -6362,13 +6365,13 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F71" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="G71" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -6385,13 +6388,13 @@
         <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F72" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="G72" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -6408,13 +6411,13 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F73" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="G73" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -6431,13 +6434,13 @@
         <v>5</v>
       </c>
       <c r="E74" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F74" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G74" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -6454,13 +6457,13 @@
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F75" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G75" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -6477,13 +6480,13 @@
         <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F76" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="G76" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -6500,13 +6503,13 @@
         <v>4</v>
       </c>
       <c r="E77" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F77" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G77" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -6520,13 +6523,13 @@
         <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F78" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="G78" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -6543,13 +6546,13 @@
         <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F79" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="G79" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -6566,13 +6569,13 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F80" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="G80" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -6589,13 +6592,13 @@
         <v>5</v>
       </c>
       <c r="E81" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F81" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="G81" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -6612,13 +6615,13 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F82" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G82" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -6635,13 +6638,13 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F83" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="G83" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -6658,13 +6661,13 @@
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F84" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="G84" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -6681,13 +6684,13 @@
         <v>4</v>
       </c>
       <c r="E85" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F85" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G85" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -6701,13 +6704,13 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F86" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G86" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -6724,13 +6727,13 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F87" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="G87" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -6744,13 +6747,13 @@
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F88" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G88" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -6764,13 +6767,13 @@
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F89" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G89" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -6787,13 +6790,13 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F90" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G90" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -6810,13 +6813,13 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F91" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="G91" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -6833,13 +6836,13 @@
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F92" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="G92" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -6856,13 +6859,13 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F93" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="G93" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -6879,13 +6882,13 @@
         <v>4</v>
       </c>
       <c r="E94" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F94" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="G94" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -6902,13 +6905,13 @@
         <v>5</v>
       </c>
       <c r="E95" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F95" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="G95" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -6925,13 +6928,13 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F96" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="G96" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -6945,13 +6948,13 @@
         <v>5</v>
       </c>
       <c r="E97" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F97" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="G97" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -6965,13 +6968,13 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F98" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="G98" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -6988,13 +6991,13 @@
         <v>5</v>
       </c>
       <c r="E99" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F99" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="G99" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -7011,13 +7014,13 @@
         <v>5</v>
       </c>
       <c r="E100" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F100" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="G100" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -7034,13 +7037,13 @@
         <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F101" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G101" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -7057,13 +7060,13 @@
         <v>5</v>
       </c>
       <c r="E102" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F102" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="G102" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -7080,13 +7083,13 @@
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F103" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="G103" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -7103,13 +7106,13 @@
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F104" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="G104" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -7123,13 +7126,13 @@
         <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F105" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="G105" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -7143,13 +7146,13 @@
         <v>5</v>
       </c>
       <c r="E106" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F106" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="G106" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -7166,13 +7169,13 @@
         <v>5</v>
       </c>
       <c r="E107" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F107" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="G107" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -7189,13 +7192,13 @@
         <v>5</v>
       </c>
       <c r="E108" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F108" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="G108" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -7212,13 +7215,13 @@
         <v>5</v>
       </c>
       <c r="E109" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F109" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G109" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -7235,13 +7238,13 @@
         <v>4</v>
       </c>
       <c r="E110" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F110" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="G110" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -7258,13 +7261,13 @@
         <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F111" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="G111" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -7281,13 +7284,13 @@
         <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F112" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="G112" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -7304,13 +7307,13 @@
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F113" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G113" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -7327,13 +7330,13 @@
         <v>5</v>
       </c>
       <c r="E114" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F114" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="G114" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -7350,13 +7353,13 @@
         <v>4</v>
       </c>
       <c r="E115" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F115" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="G115" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -7373,13 +7376,13 @@
         <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F116" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="G116" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -7396,13 +7399,13 @@
         <v>5</v>
       </c>
       <c r="E117" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F117" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="G117" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -7419,13 +7422,13 @@
         <v>2</v>
       </c>
       <c r="E118" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F118" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="G118" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -7442,13 +7445,13 @@
         <v>1</v>
       </c>
       <c r="E119" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F119" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="G119" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -7465,13 +7468,13 @@
         <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F120" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="G120" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -7488,13 +7491,13 @@
         <v>3</v>
       </c>
       <c r="E121" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F121" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="G121" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -7508,13 +7511,13 @@
         <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F122" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="G122" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -7531,13 +7534,13 @@
         <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F123" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="G123" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -7551,13 +7554,13 @@
         <v>5</v>
       </c>
       <c r="E124" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F124" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="G124" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -7571,13 +7574,13 @@
         <v>5</v>
       </c>
       <c r="E125" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F125" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="G125" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -7591,13 +7594,13 @@
         <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F126" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="G126" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -7614,13 +7617,13 @@
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F127" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="G127" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -7637,13 +7640,13 @@
         <v>5</v>
       </c>
       <c r="E128" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F128" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="G128" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -7660,13 +7663,13 @@
         <v>5</v>
       </c>
       <c r="E129" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F129" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="G129" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -7683,13 +7686,13 @@
         <v>5</v>
       </c>
       <c r="E130" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F130" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="G130" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -7706,13 +7709,13 @@
         <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F131" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="G131" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -7729,13 +7732,13 @@
         <v>3</v>
       </c>
       <c r="E132" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F132" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="G132" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -7752,13 +7755,13 @@
         <v>4</v>
       </c>
       <c r="E133" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F133" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="G133" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -7772,13 +7775,13 @@
         <v>1</v>
       </c>
       <c r="E134" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F134" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="G134" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -7792,13 +7795,13 @@
         <v>1</v>
       </c>
       <c r="E135" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F135" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="G135" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -7815,13 +7818,13 @@
         <v>5</v>
       </c>
       <c r="E136" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F136" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="G136" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -7835,13 +7838,13 @@
         <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F137" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="G137" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -7858,13 +7861,13 @@
         <v>1</v>
       </c>
       <c r="E138" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F138" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="G138" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -7881,13 +7884,13 @@
         <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F139" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="G139" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -7904,13 +7907,13 @@
         <v>5</v>
       </c>
       <c r="E140" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F140" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="G140" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -7927,13 +7930,13 @@
         <v>5</v>
       </c>
       <c r="E141" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F141" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="G141" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -7950,13 +7953,13 @@
         <v>1</v>
       </c>
       <c r="E142" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F142" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="G142" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -7973,13 +7976,13 @@
         <v>5</v>
       </c>
       <c r="E143" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F143" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="G143" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -7996,13 +7999,13 @@
         <v>5</v>
       </c>
       <c r="E144" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F144" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="G144" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -8019,13 +8022,13 @@
         <v>4</v>
       </c>
       <c r="E145" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F145" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="G145" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -8039,13 +8042,13 @@
         <v>5</v>
       </c>
       <c r="E146" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F146" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="G146" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -8059,13 +8062,13 @@
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F147" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="G147" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -8082,13 +8085,13 @@
         <v>5</v>
       </c>
       <c r="E148" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F148" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="G148" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -8105,13 +8108,13 @@
         <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F149" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="G149" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -8128,13 +8131,13 @@
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F150" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="G150" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -8151,13 +8154,13 @@
         <v>3</v>
       </c>
       <c r="E151" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F151" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="G151" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -8171,13 +8174,13 @@
         <v>2</v>
       </c>
       <c r="E152" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F152" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="G152" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -8194,13 +8197,13 @@
         <v>1</v>
       </c>
       <c r="E153" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F153" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="G153" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -8217,13 +8220,13 @@
         <v>1</v>
       </c>
       <c r="E154" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F154" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="G154" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -8237,13 +8240,13 @@
         <v>4</v>
       </c>
       <c r="E155" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F155" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="G155" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -8260,13 +8263,13 @@
         <v>1</v>
       </c>
       <c r="E156" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F156" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="G156" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -8283,13 +8286,13 @@
         <v>2</v>
       </c>
       <c r="E157" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F157" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="G157" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -8306,13 +8309,13 @@
         <v>1</v>
       </c>
       <c r="E158" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F158" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="G158" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -8326,13 +8329,13 @@
         <v>1</v>
       </c>
       <c r="E159" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F159" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="G159" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -8349,13 +8352,13 @@
         <v>5</v>
       </c>
       <c r="E160" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F160" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="G160" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -8372,13 +8375,13 @@
         <v>1</v>
       </c>
       <c r="E161" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F161" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="G161" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -8395,13 +8398,13 @@
         <v>1</v>
       </c>
       <c r="E162" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F162" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="G162" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -8418,13 +8421,13 @@
         <v>1</v>
       </c>
       <c r="E163" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F163" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="G163" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -8438,13 +8441,13 @@
         <v>1</v>
       </c>
       <c r="E164" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F164" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="G164" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -8458,13 +8461,13 @@
         <v>5</v>
       </c>
       <c r="E165" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F165" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="G165" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -8481,13 +8484,13 @@
         <v>5</v>
       </c>
       <c r="E166" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F166" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="G166" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -8504,13 +8507,13 @@
         <v>1</v>
       </c>
       <c r="E167" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F167" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="G167" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -8527,13 +8530,13 @@
         <v>1</v>
       </c>
       <c r="E168" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F168" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="G168" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -8547,13 +8550,13 @@
         <v>1</v>
       </c>
       <c r="E169" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F169" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="G169" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -8570,13 +8573,13 @@
         <v>1</v>
       </c>
       <c r="E170" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F170" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="G170" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -8593,13 +8596,13 @@
         <v>1</v>
       </c>
       <c r="E171" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F171" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="G171" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -8609,17 +8612,20 @@
       <c r="B172" t="s">
         <v>176</v>
       </c>
+      <c r="C172" t="s">
+        <v>442</v>
+      </c>
       <c r="D172">
         <v>4</v>
       </c>
       <c r="E172" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F172" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="G172" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -8630,19 +8636,19 @@
         <v>177</v>
       </c>
       <c r="C173" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D173">
         <v>1</v>
       </c>
       <c r="E173" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F173" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="G173" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -8653,19 +8659,19 @@
         <v>178</v>
       </c>
       <c r="C174" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D174">
         <v>4</v>
       </c>
       <c r="E174" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F174" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="G174" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -8679,13 +8685,13 @@
         <v>1</v>
       </c>
       <c r="E175" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F175" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="G175" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -8699,13 +8705,13 @@
         <v>2</v>
       </c>
       <c r="E176" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F176" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="G176" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -8716,19 +8722,19 @@
         <v>181</v>
       </c>
       <c r="C177" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D177">
         <v>2</v>
       </c>
       <c r="E177" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F177" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G177" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -8739,19 +8745,19 @@
         <v>182</v>
       </c>
       <c r="C178" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D178">
         <v>5</v>
       </c>
       <c r="E178" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F178" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="G178" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -8762,19 +8768,19 @@
         <v>183</v>
       </c>
       <c r="C179" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D179">
         <v>1</v>
       </c>
       <c r="E179" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F179" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="G179" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -8785,19 +8791,19 @@
         <v>184</v>
       </c>
       <c r="C180" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D180">
         <v>4</v>
       </c>
       <c r="E180" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F180" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="G180" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -8808,19 +8814,19 @@
         <v>185</v>
       </c>
       <c r="C181" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D181">
         <v>4</v>
       </c>
       <c r="E181" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F181" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="G181" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -8831,19 +8837,19 @@
         <v>186</v>
       </c>
       <c r="C182" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D182">
         <v>3</v>
       </c>
       <c r="E182" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F182" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="G182" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -8854,19 +8860,19 @@
         <v>187</v>
       </c>
       <c r="C183" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D183">
         <v>5</v>
       </c>
       <c r="E183" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F183" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="G183" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -8877,19 +8883,19 @@
         <v>188</v>
       </c>
       <c r="C184" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D184">
         <v>1</v>
       </c>
       <c r="E184" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F184" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="G184" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -8906,13 +8912,13 @@
         <v>4</v>
       </c>
       <c r="E185" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F185" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="G185" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -8923,19 +8929,19 @@
         <v>190</v>
       </c>
       <c r="C186" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D186">
         <v>5</v>
       </c>
       <c r="E186" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F186" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="G186" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -8952,13 +8958,13 @@
         <v>5</v>
       </c>
       <c r="E187" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F187" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="G187" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -8969,19 +8975,19 @@
         <v>192</v>
       </c>
       <c r="C188" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D188">
         <v>5</v>
       </c>
       <c r="E188" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F188" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="G188" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -8992,19 +8998,19 @@
         <v>193</v>
       </c>
       <c r="C189" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D189">
         <v>2</v>
       </c>
       <c r="E189" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F189" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="G189" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -9015,19 +9021,19 @@
         <v>194</v>
       </c>
       <c r="C190" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D190">
         <v>5</v>
       </c>
       <c r="E190" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F190" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="G190" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -9044,13 +9050,13 @@
         <v>1</v>
       </c>
       <c r="E191" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F191" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="G191" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -9061,19 +9067,19 @@
         <v>196</v>
       </c>
       <c r="C192" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D192">
         <v>4</v>
       </c>
       <c r="E192" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F192" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="G192" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -9084,19 +9090,19 @@
         <v>197</v>
       </c>
       <c r="C193" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D193">
         <v>5</v>
       </c>
       <c r="E193" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F193" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="G193" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -9113,13 +9119,13 @@
         <v>5</v>
       </c>
       <c r="E194" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F194" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="G194" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -9130,19 +9136,19 @@
         <v>199</v>
       </c>
       <c r="C195" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D195">
         <v>3</v>
       </c>
       <c r="E195" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F195" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="G195" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -9153,19 +9159,19 @@
         <v>200</v>
       </c>
       <c r="C196" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D196">
         <v>4</v>
       </c>
       <c r="E196" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F196" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="G196" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -9176,19 +9182,19 @@
         <v>201</v>
       </c>
       <c r="C197" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D197">
         <v>4</v>
       </c>
       <c r="E197" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F197" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="G197" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -9199,19 +9205,19 @@
         <v>202</v>
       </c>
       <c r="C198" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D198">
         <v>4</v>
       </c>
       <c r="E198" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F198" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="G198" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -9222,19 +9228,19 @@
         <v>203</v>
       </c>
       <c r="C199" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D199">
         <v>5</v>
       </c>
       <c r="E199" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F199" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="G199" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -9251,13 +9257,13 @@
         <v>5</v>
       </c>
       <c r="E200" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F200" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="G200" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -9268,19 +9274,19 @@
         <v>205</v>
       </c>
       <c r="C201" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D201">
         <v>5</v>
       </c>
       <c r="E201" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F201" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="G201" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -9291,19 +9297,19 @@
         <v>206</v>
       </c>
       <c r="C202" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D202">
         <v>1</v>
       </c>
       <c r="E202" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F202" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="G202" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -9314,19 +9320,19 @@
         <v>207</v>
       </c>
       <c r="C203" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D203">
         <v>2</v>
       </c>
       <c r="E203" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F203" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="G203" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -9337,19 +9343,19 @@
         <v>208</v>
       </c>
       <c r="C204" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D204">
         <v>3</v>
       </c>
       <c r="E204" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F204" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="G204" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -9366,13 +9372,13 @@
         <v>5</v>
       </c>
       <c r="E205" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F205" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="G205" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -9383,19 +9389,19 @@
         <v>210</v>
       </c>
       <c r="C206" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D206">
         <v>5</v>
       </c>
       <c r="E206" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F206" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="G206" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -9406,19 +9412,19 @@
         <v>211</v>
       </c>
       <c r="C207" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D207">
         <v>3</v>
       </c>
       <c r="E207" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F207" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="G207" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -9432,13 +9438,13 @@
         <v>1</v>
       </c>
       <c r="E208" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F208" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="G208" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -9449,19 +9455,19 @@
         <v>213</v>
       </c>
       <c r="C209" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D209">
         <v>4</v>
       </c>
       <c r="E209" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F209" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="G209" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -9472,19 +9478,19 @@
         <v>214</v>
       </c>
       <c r="C210" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D210">
         <v>1</v>
       </c>
       <c r="E210" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F210" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="G210" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -9498,13 +9504,13 @@
         <v>2</v>
       </c>
       <c r="E211" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F211" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="G211" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -9515,19 +9521,19 @@
         <v>216</v>
       </c>
       <c r="C212" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D212">
         <v>1</v>
       </c>
       <c r="E212" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F212" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="G212" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -9541,13 +9547,13 @@
         <v>2</v>
       </c>
       <c r="E213" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F213" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G213" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -9558,19 +9564,19 @@
         <v>218</v>
       </c>
       <c r="C214" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D214">
         <v>1</v>
       </c>
       <c r="E214" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F214" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="G214" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -9584,13 +9590,13 @@
         <v>4</v>
       </c>
       <c r="E215" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F215" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="G215" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -9601,19 +9607,19 @@
         <v>220</v>
       </c>
       <c r="C216" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D216">
         <v>4</v>
       </c>
       <c r="E216" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F216" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="G216" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -9630,13 +9636,13 @@
         <v>4</v>
       </c>
       <c r="E217" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F217" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="G217" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -9650,13 +9656,13 @@
         <v>5</v>
       </c>
       <c r="E218" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F218" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="G218" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -9667,19 +9673,19 @@
         <v>223</v>
       </c>
       <c r="C219" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D219">
         <v>4</v>
       </c>
       <c r="E219" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F219" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="G219" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -9696,13 +9702,13 @@
         <v>1</v>
       </c>
       <c r="E220" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F220" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="G220" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -9713,19 +9719,19 @@
         <v>225</v>
       </c>
       <c r="C221" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D221">
         <v>5</v>
       </c>
       <c r="E221" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F221" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="G221" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -9736,19 +9742,19 @@
         <v>226</v>
       </c>
       <c r="C222" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D222">
         <v>4</v>
       </c>
       <c r="E222" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F222" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="G222" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -9759,19 +9765,19 @@
         <v>227</v>
       </c>
       <c r="C223" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D223">
         <v>4</v>
       </c>
       <c r="E223" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F223" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="G223" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -9782,19 +9788,19 @@
         <v>228</v>
       </c>
       <c r="C224" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D224">
         <v>5</v>
       </c>
       <c r="E224" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F224" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="G224" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -9808,13 +9814,13 @@
         <v>1</v>
       </c>
       <c r="E225" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="F225" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="G225" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -9825,19 +9831,19 @@
         <v>230</v>
       </c>
       <c r="C226" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D226">
         <v>5</v>
       </c>
       <c r="E226" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F226" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="G226" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -9848,19 +9854,19 @@
         <v>231</v>
       </c>
       <c r="C227" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D227">
         <v>5</v>
       </c>
       <c r="E227" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F227" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="G227" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -9874,13 +9880,13 @@
         <v>1</v>
       </c>
       <c r="E228" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="F228" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="G228" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -9891,19 +9897,19 @@
         <v>233</v>
       </c>
       <c r="C229" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D229">
         <v>1</v>
       </c>
       <c r="E229" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F229" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G229" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -9920,13 +9926,13 @@
         <v>5</v>
       </c>
       <c r="E230" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F230" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="G230" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -9937,19 +9943,19 @@
         <v>235</v>
       </c>
       <c r="C231" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D231">
         <v>5</v>
       </c>
       <c r="E231" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F231" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="G231" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -9963,13 +9969,13 @@
         <v>3</v>
       </c>
       <c r="E232" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F232" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="G232" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -9986,13 +9992,13 @@
         <v>5</v>
       </c>
       <c r="E233" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F233" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="G233" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -10003,19 +10009,19 @@
         <v>238</v>
       </c>
       <c r="C234" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D234">
         <v>1</v>
       </c>
       <c r="E234" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F234" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="G234" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -10026,19 +10032,19 @@
         <v>239</v>
       </c>
       <c r="C235" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D235">
         <v>5</v>
       </c>
       <c r="E235" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F235" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="G235" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -10049,19 +10055,19 @@
         <v>240</v>
       </c>
       <c r="C236" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D236">
         <v>4</v>
       </c>
       <c r="E236" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F236" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="G236" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -10072,19 +10078,19 @@
         <v>241</v>
       </c>
       <c r="C237" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D237">
         <v>5</v>
       </c>
       <c r="E237" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F237" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="G237" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -10095,19 +10101,19 @@
         <v>242</v>
       </c>
       <c r="C238" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D238">
         <v>1</v>
       </c>
       <c r="E238" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F238" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="G238" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -10118,19 +10124,19 @@
         <v>243</v>
       </c>
       <c r="C239" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D239">
         <v>5</v>
       </c>
       <c r="E239" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F239" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="G239" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -10141,19 +10147,19 @@
         <v>244</v>
       </c>
       <c r="C240" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D240">
         <v>3</v>
       </c>
       <c r="E240" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F240" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="G240" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -10164,19 +10170,19 @@
         <v>245</v>
       </c>
       <c r="C241" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D241">
         <v>2</v>
       </c>
       <c r="E241" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F241" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="G241" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -10190,13 +10196,13 @@
         <v>1</v>
       </c>
       <c r="E242" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F242" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="G242" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -10207,19 +10213,19 @@
         <v>247</v>
       </c>
       <c r="C243" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D243">
         <v>5</v>
       </c>
       <c r="E243" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F243" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="G243" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -10236,13 +10242,13 @@
         <v>1</v>
       </c>
       <c r="E244" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F244" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="G244" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -10256,13 +10262,13 @@
         <v>4</v>
       </c>
       <c r="E245" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F245" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="G245" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -10273,19 +10279,19 @@
         <v>250</v>
       </c>
       <c r="C246" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D246">
         <v>1</v>
       </c>
       <c r="E246" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F246" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="G246" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -10296,19 +10302,19 @@
         <v>251</v>
       </c>
       <c r="C247" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D247">
         <v>4</v>
       </c>
       <c r="E247" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F247" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G247" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -10319,19 +10325,19 @@
         <v>252</v>
       </c>
       <c r="C248" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D248">
         <v>4</v>
       </c>
       <c r="E248" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F248" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="G248" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -10342,19 +10348,19 @@
         <v>253</v>
       </c>
       <c r="C249" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D249">
         <v>5</v>
       </c>
       <c r="E249" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F249" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="G249" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -10371,13 +10377,13 @@
         <v>5</v>
       </c>
       <c r="E250" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="F250" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="G250" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -10388,19 +10394,19 @@
         <v>255</v>
       </c>
       <c r="C251" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D251">
         <v>5</v>
       </c>
       <c r="E251" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F251" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="G251" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -10414,13 +10420,13 @@
         <v>1</v>
       </c>
       <c r="E252" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F252" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G252" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -10431,19 +10437,19 @@
         <v>257</v>
       </c>
       <c r="C253" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D253">
         <v>1</v>
       </c>
       <c r="E253" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F253" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="G253" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -10454,19 +10460,19 @@
         <v>258</v>
       </c>
       <c r="C254" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D254">
         <v>5</v>
       </c>
       <c r="E254" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F254" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="G254" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -10477,19 +10483,19 @@
         <v>259</v>
       </c>
       <c r="C255" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D255">
         <v>4</v>
       </c>
       <c r="E255" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F255" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="G255" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -10500,19 +10506,19 @@
         <v>260</v>
       </c>
       <c r="C256" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D256">
         <v>5</v>
       </c>
       <c r="E256" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F256" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="G256" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -10526,13 +10532,13 @@
         <v>1</v>
       </c>
       <c r="E257" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F257" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="G257" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -10543,19 +10549,19 @@
         <v>262</v>
       </c>
       <c r="C258" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D258">
         <v>5</v>
       </c>
       <c r="E258" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F258" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="G258" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -10566,19 +10572,19 @@
         <v>263</v>
       </c>
       <c r="C259" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D259">
         <v>5</v>
       </c>
       <c r="E259" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F259" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="G259" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -10589,19 +10595,19 @@
         <v>264</v>
       </c>
       <c r="C260" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D260">
         <v>5</v>
       </c>
       <c r="E260" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F260" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="G260" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -10612,19 +10618,19 @@
         <v>265</v>
       </c>
       <c r="C261" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D261">
         <v>4</v>
       </c>
       <c r="E261" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F261" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G261" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -10635,19 +10641,19 @@
         <v>266</v>
       </c>
       <c r="C262" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D262">
         <v>4</v>
       </c>
       <c r="E262" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F262" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="G262" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -10658,19 +10664,19 @@
         <v>267</v>
       </c>
       <c r="C263" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D263">
         <v>5</v>
       </c>
       <c r="E263" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F263" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="G263" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -10687,13 +10693,13 @@
         <v>5</v>
       </c>
       <c r="E264" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F264" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="G264" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -10704,19 +10710,19 @@
         <v>269</v>
       </c>
       <c r="C265" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D265">
         <v>4</v>
       </c>
       <c r="E265" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F265" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="G265" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -10727,19 +10733,19 @@
         <v>270</v>
       </c>
       <c r="C266" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D266">
         <v>5</v>
       </c>
       <c r="E266" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F266" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="G266" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -10750,19 +10756,19 @@
         <v>271</v>
       </c>
       <c r="C267" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D267">
         <v>5</v>
       </c>
       <c r="E267" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F267" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="G267" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -10773,19 +10779,19 @@
         <v>272</v>
       </c>
       <c r="C268" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D268">
         <v>4</v>
       </c>
       <c r="E268" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F268" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="G268" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -10796,19 +10802,19 @@
         <v>273</v>
       </c>
       <c r="C269" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D269">
         <v>1</v>
       </c>
       <c r="E269" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F269" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="G269" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -10819,19 +10825,19 @@
         <v>274</v>
       </c>
       <c r="C270" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D270">
         <v>5</v>
       </c>
       <c r="E270" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F270" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="G270" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -10845,13 +10851,13 @@
         <v>5</v>
       </c>
       <c r="E271" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F271" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="G271" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -10862,19 +10868,19 @@
         <v>276</v>
       </c>
       <c r="C272" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D272">
         <v>5</v>
       </c>
       <c r="E272" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F272" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="G272" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -10891,13 +10897,13 @@
         <v>1</v>
       </c>
       <c r="E273" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F273" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G273" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -10914,13 +10920,13 @@
         <v>5</v>
       </c>
       <c r="E274" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F274" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="G274" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -10931,19 +10937,19 @@
         <v>279</v>
       </c>
       <c r="C275" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D275">
         <v>4</v>
       </c>
       <c r="E275" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F275" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="G275" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -10960,13 +10966,13 @@
         <v>5</v>
       </c>
       <c r="E276" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F276" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="G276" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -10980,13 +10986,13 @@
         <v>5</v>
       </c>
       <c r="E277" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F277" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="G277" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -10997,19 +11003,19 @@
         <v>282</v>
       </c>
       <c r="C278" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D278">
         <v>5</v>
       </c>
       <c r="E278" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F278" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="G278" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -11020,19 +11026,19 @@
         <v>283</v>
       </c>
       <c r="C279" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D279">
         <v>4</v>
       </c>
       <c r="E279" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F279" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="G279" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -11043,19 +11049,19 @@
         <v>284</v>
       </c>
       <c r="C280" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D280">
         <v>5</v>
       </c>
       <c r="E280" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F280" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="G280" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -11066,19 +11072,19 @@
         <v>285</v>
       </c>
       <c r="C281" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D281">
         <v>5</v>
       </c>
       <c r="E281" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F281" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="G281" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -11095,13 +11101,13 @@
         <v>5</v>
       </c>
       <c r="E282" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F282" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="G282" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -11118,13 +11124,13 @@
         <v>4</v>
       </c>
       <c r="E283" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F283" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="G283" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -11135,19 +11141,19 @@
         <v>288</v>
       </c>
       <c r="C284" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D284">
         <v>5</v>
       </c>
       <c r="E284" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F284" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="G284" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -11164,13 +11170,13 @@
         <v>4</v>
       </c>
       <c r="E285" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F285" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="G285" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -11181,19 +11187,19 @@
         <v>290</v>
       </c>
       <c r="C286" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D286">
         <v>5</v>
       </c>
       <c r="E286" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F286" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="G286" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -11204,19 +11210,19 @@
         <v>291</v>
       </c>
       <c r="C287" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D287">
         <v>5</v>
       </c>
       <c r="E287" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F287" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="G287" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -11227,19 +11233,19 @@
         <v>292</v>
       </c>
       <c r="C288" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D288">
         <v>4</v>
       </c>
       <c r="E288" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F288" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="G288" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -11250,19 +11256,19 @@
         <v>293</v>
       </c>
       <c r="C289" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D289">
         <v>4</v>
       </c>
       <c r="E289" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F289" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="G289" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -11273,19 +11279,19 @@
         <v>294</v>
       </c>
       <c r="C290" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D290">
         <v>5</v>
       </c>
       <c r="E290" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F290" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="G290" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -11296,19 +11302,19 @@
         <v>295</v>
       </c>
       <c r="C291" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D291">
         <v>5</v>
       </c>
       <c r="E291" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F291" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="G291" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -11325,13 +11331,13 @@
         <v>4</v>
       </c>
       <c r="E292" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F292" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="G292" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -11342,19 +11348,19 @@
         <v>297</v>
       </c>
       <c r="C293" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D293">
         <v>5</v>
       </c>
       <c r="E293" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F293" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="G293" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -11365,19 +11371,19 @@
         <v>298</v>
       </c>
       <c r="C294" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D294">
         <v>4</v>
       </c>
       <c r="E294" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F294" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="G294" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -11388,19 +11394,19 @@
         <v>299</v>
       </c>
       <c r="C295" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D295">
         <v>5</v>
       </c>
       <c r="E295" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F295" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="G295" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -11417,13 +11423,13 @@
         <v>5</v>
       </c>
       <c r="E296" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F296" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="G296" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -11434,19 +11440,19 @@
         <v>301</v>
       </c>
       <c r="C297" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D297">
         <v>5</v>
       </c>
       <c r="E297" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F297" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="G297" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -11457,19 +11463,19 @@
         <v>302</v>
       </c>
       <c r="C298" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D298">
         <v>2</v>
       </c>
       <c r="E298" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F298" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="G298" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -11480,19 +11486,19 @@
         <v>303</v>
       </c>
       <c r="C299" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D299">
         <v>1</v>
       </c>
       <c r="E299" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F299" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="G299" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -11506,13 +11512,13 @@
         <v>3</v>
       </c>
       <c r="E300" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F300" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="G300" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -11523,19 +11529,19 @@
         <v>305</v>
       </c>
       <c r="C301" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D301">
         <v>5</v>
       </c>
       <c r="E301" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F301" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="G301" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -11546,19 +11552,19 @@
         <v>306</v>
       </c>
       <c r="C302" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D302">
         <v>5</v>
       </c>
       <c r="E302" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F302" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="G302" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -11569,19 +11575,19 @@
         <v>307</v>
       </c>
       <c r="C303" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D303">
         <v>5</v>
       </c>
       <c r="E303" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F303" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="G303" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -11592,19 +11598,19 @@
         <v>308</v>
       </c>
       <c r="C304" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D304">
         <v>1</v>
       </c>
       <c r="E304" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F304" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G304" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -11615,19 +11621,19 @@
         <v>309</v>
       </c>
       <c r="C305" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D305">
         <v>1</v>
       </c>
       <c r="E305" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F305" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="G305" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -11644,13 +11650,13 @@
         <v>5</v>
       </c>
       <c r="E306" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F306" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="G306" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -11661,19 +11667,19 @@
         <v>311</v>
       </c>
       <c r="C307" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D307">
         <v>4</v>
       </c>
       <c r="E307" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F307" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="G307" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -11684,19 +11690,19 @@
         <v>312</v>
       </c>
       <c r="C308" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D308">
         <v>5</v>
       </c>
       <c r="E308" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F308" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="G308" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -11707,19 +11713,19 @@
         <v>313</v>
       </c>
       <c r="C309" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D309">
         <v>4</v>
       </c>
       <c r="E309" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F309" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="G309" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -11730,19 +11736,19 @@
         <v>314</v>
       </c>
       <c r="C310" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D310">
         <v>5</v>
       </c>
       <c r="E310" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F310" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="G310" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -11753,19 +11759,19 @@
         <v>315</v>
       </c>
       <c r="C311" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D311">
         <v>5</v>
       </c>
       <c r="E311" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F311" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="G311" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -11776,19 +11782,19 @@
         <v>316</v>
       </c>
       <c r="C312" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D312">
         <v>5</v>
       </c>
       <c r="E312" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="F312" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="G312" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -11799,19 +11805,19 @@
         <v>317</v>
       </c>
       <c r="C313" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D313">
         <v>5</v>
       </c>
       <c r="E313" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F313" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="G313" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -11822,19 +11828,19 @@
         <v>318</v>
       </c>
       <c r="C314" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D314">
         <v>5</v>
       </c>
       <c r="E314" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F314" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="G314" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -11851,13 +11857,13 @@
         <v>5</v>
       </c>
       <c r="E315" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F315" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="G315" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -11874,13 +11880,13 @@
         <v>5</v>
       </c>
       <c r="E316" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="F316" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="G316" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -11891,19 +11897,19 @@
         <v>321</v>
       </c>
       <c r="C317" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D317">
         <v>2</v>
       </c>
       <c r="E317" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F317" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="G317" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -11914,19 +11920,19 @@
         <v>322</v>
       </c>
       <c r="C318" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D318">
         <v>5</v>
       </c>
       <c r="E318" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F318" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="G318" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -11937,19 +11943,19 @@
         <v>323</v>
       </c>
       <c r="C319" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D319">
         <v>5</v>
       </c>
       <c r="E319" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F319" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G319" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -11960,19 +11966,19 @@
         <v>324</v>
       </c>
       <c r="C320" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D320">
         <v>5</v>
       </c>
       <c r="E320" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F320" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="G320" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -11989,13 +11995,13 @@
         <v>4</v>
       </c>
       <c r="E321" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="F321" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="G321" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -12012,13 +12018,13 @@
         <v>4</v>
       </c>
       <c r="E322" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F322" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="G322" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -12035,13 +12041,13 @@
         <v>1</v>
       </c>
       <c r="E323" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F323" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="G323" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -12052,19 +12058,19 @@
         <v>328</v>
       </c>
       <c r="C324" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D324">
         <v>1</v>
       </c>
       <c r="E324" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F324" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="G324" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -12081,13 +12087,13 @@
         <v>1</v>
       </c>
       <c r="E325" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="F325" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="G325" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -12101,13 +12107,13 @@
         <v>5</v>
       </c>
       <c r="E326" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F326" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="G326" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -12124,13 +12130,13 @@
         <v>5</v>
       </c>
       <c r="E327" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F327" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="G327" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
   </sheetData>
